--- a/config/standard/forms/contact/person-edit.xlsx
+++ b/config/standard/forms/contact/person-edit.xlsx
@@ -1557,11 +1557,11 @@
   <dimension ref="A1:AR87"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="N27" activeCellId="0" sqref="N27"/>
+      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="O27" activeCellId="0" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1579,7 +1579,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="14" style="0" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="132.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="23.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="23.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="15.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="36.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="8.7"/>
@@ -7219,7 +7224,7 @@
       </c>
       <c r="C2" s="43" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2018-12-10  12-40</v>
+        <v>2019-01-21  19-46</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>338</v>
